--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cspg4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H2">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I2">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J2">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16528824799189</v>
+        <v>1.352028</v>
       </c>
       <c r="N2">
-        <v>1.16528824799189</v>
+        <v>2.704056</v>
       </c>
       <c r="O2">
-        <v>0.04488379200605574</v>
+        <v>0.04713951580538031</v>
       </c>
       <c r="P2">
-        <v>0.04488379200605574</v>
+        <v>0.04081250644379757</v>
       </c>
       <c r="Q2">
-        <v>0.5786785556492404</v>
+        <v>0.700140263646</v>
       </c>
       <c r="R2">
-        <v>0.5786785556492404</v>
+        <v>2.800561054584</v>
       </c>
       <c r="S2">
-        <v>0.002946519876063525</v>
+        <v>0.002958089267298721</v>
       </c>
       <c r="T2">
-        <v>0.002946519876063525</v>
+        <v>0.002349986508892384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H3">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I3">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J3">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40698891189478</v>
+        <v>3.780960333333333</v>
       </c>
       <c r="N3">
-        <v>3.40698891189478</v>
+        <v>11.342881</v>
       </c>
       <c r="O3">
-        <v>0.1312281162638892</v>
+        <v>0.1318261451631791</v>
       </c>
       <c r="P3">
-        <v>0.1312281162638892</v>
+        <v>0.1711988967328077</v>
       </c>
       <c r="Q3">
-        <v>1.691900202414098</v>
+        <v>1.957949513334833</v>
       </c>
       <c r="R3">
-        <v>1.691900202414098</v>
+        <v>11.747697080009</v>
       </c>
       <c r="S3">
-        <v>0.008614830333804134</v>
+        <v>0.008272327335022296</v>
       </c>
       <c r="T3">
-        <v>0.008614830333804134</v>
+        <v>0.009857642490381763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H4">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I4">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J4">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.629223050062849</v>
+        <v>0.8490023333333334</v>
       </c>
       <c r="N4">
-        <v>0.629223050062849</v>
+        <v>2.547007</v>
       </c>
       <c r="O4">
-        <v>0.02423599186991325</v>
+        <v>0.0296011317154463</v>
       </c>
       <c r="P4">
-        <v>0.02423599186991325</v>
+        <v>0.03844215489616248</v>
       </c>
       <c r="Q4">
-        <v>0.3124702290777013</v>
+        <v>0.4396511888038334</v>
       </c>
       <c r="R4">
-        <v>0.3124702290777013</v>
+        <v>2.637907132823</v>
       </c>
       <c r="S4">
-        <v>0.001591038291755262</v>
+        <v>0.001857524171204224</v>
       </c>
       <c r="T4">
-        <v>0.001591038291755262</v>
+        <v>0.002213501528095004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H5">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I5">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J5">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.243744766943442</v>
+        <v>0.3081146666666667</v>
       </c>
       <c r="N5">
-        <v>0.243744766943442</v>
+        <v>0.9243440000000001</v>
       </c>
       <c r="O5">
-        <v>0.009388397626859205</v>
+        <v>0.01074265932303386</v>
       </c>
       <c r="P5">
-        <v>0.009388397626859205</v>
+        <v>0.01395118867963002</v>
       </c>
       <c r="Q5">
-        <v>0.1210429006942782</v>
+        <v>0.1595554855026667</v>
       </c>
       <c r="R5">
-        <v>0.1210429006942782</v>
+        <v>0.9573329130160001</v>
       </c>
       <c r="S5">
-        <v>0.0006163271634490232</v>
+        <v>0.0006741211635883204</v>
       </c>
       <c r="T5">
-        <v>0.0006163271634490232</v>
+        <v>0.0008033102604293778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H6">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I6">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J6">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.93339102819297</v>
+        <v>3.954666333333333</v>
       </c>
       <c r="N6">
-        <v>2.93339102819297</v>
+        <v>11.863999</v>
       </c>
       <c r="O6">
-        <v>0.1129863902847491</v>
+        <v>0.1378825409867045</v>
       </c>
       <c r="P6">
-        <v>0.1129863902847491</v>
+        <v>0.1790641671757937</v>
       </c>
       <c r="Q6">
-        <v>1.456712951730516</v>
+        <v>2.047902210051833</v>
       </c>
       <c r="R6">
-        <v>1.456712951730516</v>
+        <v>12.287413260311</v>
       </c>
       <c r="S6">
-        <v>0.007417302099915418</v>
+        <v>0.008652377048686061</v>
       </c>
       <c r="T6">
-        <v>0.007417302099915418</v>
+        <v>0.01031052522267021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H7">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I7">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J7">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.5837035368732</v>
+        <v>18.436643</v>
       </c>
       <c r="N7">
-        <v>17.5837035368732</v>
+        <v>36.873286</v>
       </c>
       <c r="O7">
-        <v>0.6772773119485335</v>
+        <v>0.642808007006256</v>
       </c>
       <c r="P7">
-        <v>0.6772773119485335</v>
+        <v>0.5565310860718087</v>
       </c>
       <c r="Q7">
-        <v>8.732013030438663</v>
+        <v>9.547314176013501</v>
       </c>
       <c r="R7">
-        <v>8.732013030438663</v>
+        <v>38.189256704054</v>
       </c>
       <c r="S7">
-        <v>0.04446173043921916</v>
+        <v>0.04033735675837933</v>
       </c>
       <c r="T7">
-        <v>0.04446173043921916</v>
+        <v>0.03204509249754088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J8">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.16528824799189</v>
+        <v>1.352028</v>
       </c>
       <c r="N8">
-        <v>1.16528824799189</v>
+        <v>2.704056</v>
       </c>
       <c r="O8">
-        <v>0.04488379200605574</v>
+        <v>0.04713951580538031</v>
       </c>
       <c r="P8">
-        <v>0.04488379200605574</v>
+        <v>0.04081250644379757</v>
       </c>
       <c r="Q8">
-        <v>1.067898894837408</v>
+        <v>0.7132240639400002</v>
       </c>
       <c r="R8">
-        <v>1.067898894837408</v>
+        <v>4.279344383640001</v>
       </c>
       <c r="S8">
-        <v>0.005437535724361558</v>
+        <v>0.003013368261001517</v>
       </c>
       <c r="T8">
-        <v>0.005437535724361558</v>
+        <v>0.003590852465793568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J9">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40698891189478</v>
+        <v>3.780960333333333</v>
       </c>
       <c r="N9">
-        <v>3.40698891189478</v>
+        <v>11.342881</v>
       </c>
       <c r="O9">
-        <v>0.1312281162638892</v>
+        <v>0.1318261451631791</v>
       </c>
       <c r="P9">
-        <v>0.1312281162638892</v>
+        <v>0.1711988967328077</v>
       </c>
       <c r="Q9">
-        <v>3.122248679676943</v>
+        <v>1.994538496640556</v>
       </c>
       <c r="R9">
-        <v>3.122248679676943</v>
+        <v>17.950846469765</v>
       </c>
       <c r="S9">
-        <v>0.01589788960187</v>
+        <v>0.008426915614597023</v>
       </c>
       <c r="T9">
-        <v>0.01589788960187</v>
+        <v>0.01506278427963512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J10">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.629223050062849</v>
+        <v>0.8490023333333334</v>
       </c>
       <c r="N10">
-        <v>0.629223050062849</v>
+        <v>2.547007</v>
       </c>
       <c r="O10">
-        <v>0.02423599186991325</v>
+        <v>0.0296011317154463</v>
       </c>
       <c r="P10">
-        <v>0.02423599186991325</v>
+        <v>0.03844215489616248</v>
       </c>
       <c r="Q10">
-        <v>0.5766355242372749</v>
+        <v>0.4478671258838891</v>
       </c>
       <c r="R10">
-        <v>0.5766355242372749</v>
+        <v>4.030804132955001</v>
       </c>
       <c r="S10">
-        <v>0.002936117153163201</v>
+        <v>0.001892236466096041</v>
       </c>
       <c r="T10">
-        <v>0.002936117153163201</v>
+        <v>0.003382299170706332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J11">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.243744766943442</v>
+        <v>0.3081146666666667</v>
       </c>
       <c r="N11">
-        <v>0.243744766943442</v>
+        <v>0.9243440000000001</v>
       </c>
       <c r="O11">
-        <v>0.009388397626859205</v>
+        <v>0.01074265932303386</v>
       </c>
       <c r="P11">
-        <v>0.009388397626859205</v>
+        <v>0.01395118867963002</v>
       </c>
       <c r="Q11">
-        <v>0.2233737169235699</v>
+        <v>0.1625371624844445</v>
       </c>
       <c r="R11">
-        <v>0.2233737169235699</v>
+        <v>1.46283446236</v>
       </c>
       <c r="S11">
-        <v>0.001137375992734093</v>
+        <v>0.0006867187345841918</v>
       </c>
       <c r="T11">
-        <v>0.001137375992734093</v>
+        <v>0.001227483059389854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J12">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.93339102819297</v>
+        <v>3.954666333333333</v>
       </c>
       <c r="N12">
-        <v>2.93339102819297</v>
+        <v>11.863999</v>
       </c>
       <c r="O12">
-        <v>0.1129863902847491</v>
+        <v>0.1378825409867045</v>
       </c>
       <c r="P12">
-        <v>0.1129863902847491</v>
+        <v>0.1790641671757937</v>
       </c>
       <c r="Q12">
-        <v>2.688231896727272</v>
+        <v>2.086172175270556</v>
       </c>
       <c r="R12">
-        <v>2.688231896727272</v>
+        <v>18.775549577435</v>
       </c>
       <c r="S12">
-        <v>0.01368795964158043</v>
+        <v>0.008814067468808275</v>
       </c>
       <c r="T12">
-        <v>0.01368795964158043</v>
+        <v>0.01575480317838182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.916424667182295</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
-        <v>0.916424667182295</v>
+        <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.1211469771455122</v>
+        <v>0.06392446357409517</v>
       </c>
       <c r="J13">
-        <v>0.1211469771455122</v>
+        <v>0.08798412003287498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.5837035368732</v>
+        <v>18.436643</v>
       </c>
       <c r="N13">
-        <v>17.5837035368732</v>
+        <v>36.873286</v>
       </c>
       <c r="O13">
-        <v>0.6772773119485335</v>
+        <v>0.642808007006256</v>
       </c>
       <c r="P13">
-        <v>0.6772773119485335</v>
+        <v>0.5565310860718087</v>
       </c>
       <c r="Q13">
-        <v>16.11413966161117</v>
+        <v>9.725728643098336</v>
       </c>
       <c r="R13">
-        <v>16.11413966161117</v>
+        <v>58.35437185859001</v>
       </c>
       <c r="S13">
-        <v>0.08205009903180294</v>
+        <v>0.04109115702900813</v>
       </c>
       <c r="T13">
-        <v>0.08205009903180294</v>
+        <v>0.04896589787896829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H14">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I14">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J14">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.16528824799189</v>
+        <v>1.352028</v>
       </c>
       <c r="N14">
-        <v>1.16528824799189</v>
+        <v>2.704056</v>
       </c>
       <c r="O14">
-        <v>0.04488379200605574</v>
+        <v>0.04713951580538031</v>
       </c>
       <c r="P14">
-        <v>0.04488379200605574</v>
+        <v>0.04081250644379757</v>
       </c>
       <c r="Q14">
-        <v>7.168325900793271</v>
+        <v>1.291032158132</v>
       </c>
       <c r="R14">
-        <v>7.168325900793271</v>
+        <v>7.746192948792</v>
       </c>
       <c r="S14">
-        <v>0.03649973640563065</v>
+        <v>0.005454604697093531</v>
       </c>
       <c r="T14">
-        <v>0.03649973640563065</v>
+        <v>0.006499929324926816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H15">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I15">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J15">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.40698891189478</v>
+        <v>3.780960333333333</v>
       </c>
       <c r="N15">
-        <v>3.40698891189478</v>
+        <v>11.342881</v>
       </c>
       <c r="O15">
-        <v>0.1312281162638892</v>
+        <v>0.1318261451631791</v>
       </c>
       <c r="P15">
-        <v>0.1312281162638892</v>
+        <v>0.1711988967328077</v>
       </c>
       <c r="Q15">
-        <v>20.95825380796324</v>
+        <v>3.610384828535222</v>
       </c>
       <c r="R15">
-        <v>20.95825380796324</v>
+        <v>32.493463456817</v>
       </c>
       <c r="S15">
-        <v>0.106715396328215</v>
+        <v>0.01525385864325614</v>
       </c>
       <c r="T15">
-        <v>0.106715396328215</v>
+        <v>0.02726567972004101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H16">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I16">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J16">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.629223050062849</v>
+        <v>0.8490023333333334</v>
       </c>
       <c r="N16">
-        <v>0.629223050062849</v>
+        <v>2.547007</v>
       </c>
       <c r="O16">
-        <v>0.02423599186991325</v>
+        <v>0.0296011317154463</v>
       </c>
       <c r="P16">
-        <v>0.02423599186991325</v>
+        <v>0.03844215489616248</v>
       </c>
       <c r="Q16">
-        <v>3.870695422282378</v>
+        <v>0.8107001590665557</v>
       </c>
       <c r="R16">
-        <v>3.870695422282378</v>
+        <v>7.296301431599002</v>
       </c>
       <c r="S16">
-        <v>0.01970883642499479</v>
+        <v>0.003425204296984506</v>
       </c>
       <c r="T16">
-        <v>0.01970883642499479</v>
+        <v>0.00612241961338592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H17">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I17">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J17">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.243744766943442</v>
+        <v>0.3081146666666667</v>
       </c>
       <c r="N17">
-        <v>0.243744766943442</v>
+        <v>0.9243440000000001</v>
       </c>
       <c r="O17">
-        <v>0.009388397626859205</v>
+        <v>0.01074265932303386</v>
       </c>
       <c r="P17">
-        <v>0.009388397626859205</v>
+        <v>0.01395118867963002</v>
       </c>
       <c r="Q17">
-        <v>1.499407489155125</v>
+        <v>0.2942142788897779</v>
       </c>
       <c r="R17">
-        <v>1.499407489155125</v>
+        <v>2.647928510008001</v>
       </c>
       <c r="S17">
-        <v>0.007634694470676088</v>
+        <v>0.001243053921992302</v>
       </c>
       <c r="T17">
-        <v>0.007634694470676088</v>
+        <v>0.00222191059353806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.15154740738719</v>
+        <v>0.9548856666666667</v>
       </c>
       <c r="H18">
-        <v>6.15154740738719</v>
+        <v>2.864657</v>
       </c>
       <c r="I18">
-        <v>0.8132052746502813</v>
+        <v>0.1157119372972211</v>
       </c>
       <c r="J18">
-        <v>0.8132052746502813</v>
+        <v>0.1592631742399304</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.93339102819297</v>
+        <v>3.954666333333333</v>
       </c>
       <c r="N18">
-        <v>2.93339102819297</v>
+        <v>11.863999</v>
       </c>
       <c r="O18">
-        <v>0.1129863902847491</v>
+        <v>0.1378825409867045</v>
       </c>
       <c r="P18">
-        <v>0.1129863902847491</v>
+        <v>0.1790641671757937</v>
       </c>
       <c r="Q18">
-        <v>18.04489397433331</v>
+        <v>3.776254198149223</v>
       </c>
       <c r="R18">
-        <v>18.04489397433331</v>
+        <v>33.986287783343</v>
       </c>
       <c r="S18">
-        <v>0.0918811285432533</v>
+        <v>0.01595465593703507</v>
       </c>
       <c r="T18">
-        <v>0.0918811285432533</v>
+        <v>0.02851832765704646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.864657</v>
+      </c>
+      <c r="I19">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J19">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.436643</v>
+      </c>
+      <c r="N19">
+        <v>36.873286</v>
+      </c>
+      <c r="O19">
+        <v>0.642808007006256</v>
+      </c>
+      <c r="P19">
+        <v>0.5565310860718087</v>
+      </c>
+      <c r="Q19">
+        <v>17.60488614215033</v>
+      </c>
+      <c r="R19">
+        <v>105.629316852902</v>
+      </c>
+      <c r="S19">
+        <v>0.07438055980085957</v>
+      </c>
+      <c r="T19">
+        <v>0.08863490733099219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.252014</v>
+      </c>
+      <c r="H20">
+        <v>12.504028</v>
+      </c>
+      <c r="I20">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J20">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.352028</v>
+      </c>
+      <c r="N20">
+        <v>2.704056</v>
+      </c>
+      <c r="O20">
+        <v>0.04713951580538031</v>
+      </c>
+      <c r="P20">
+        <v>0.04081250644379757</v>
+      </c>
+      <c r="Q20">
+        <v>8.452897984391999</v>
+      </c>
+      <c r="R20">
+        <v>33.811591937568</v>
+      </c>
+      <c r="S20">
+        <v>0.03571345357998654</v>
+      </c>
+      <c r="T20">
+        <v>0.0283717381441848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.252014</v>
+      </c>
+      <c r="H21">
+        <v>12.504028</v>
+      </c>
+      <c r="I21">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J21">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.780960333333333</v>
+      </c>
+      <c r="N21">
+        <v>11.342881</v>
+      </c>
+      <c r="O21">
+        <v>0.1318261451631791</v>
+      </c>
+      <c r="P21">
+        <v>0.1711988967328077</v>
+      </c>
+      <c r="Q21">
+        <v>23.63861693744467</v>
+      </c>
+      <c r="R21">
+        <v>141.831701624668</v>
+      </c>
+      <c r="S21">
+        <v>0.0998730435703036</v>
+      </c>
+      <c r="T21">
+        <v>0.1190127902427498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.252014</v>
+      </c>
+      <c r="H22">
+        <v>12.504028</v>
+      </c>
+      <c r="I22">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J22">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8490023333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.547007</v>
+      </c>
+      <c r="O22">
+        <v>0.0296011317154463</v>
+      </c>
+      <c r="P22">
+        <v>0.03844215489616248</v>
+      </c>
+      <c r="Q22">
+        <v>5.307974474032667</v>
+      </c>
+      <c r="R22">
+        <v>31.847846844196</v>
+      </c>
+      <c r="S22">
+        <v>0.02242616678116154</v>
+      </c>
+      <c r="T22">
+        <v>0.02672393458397522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.252014</v>
+      </c>
+      <c r="H23">
+        <v>12.504028</v>
+      </c>
+      <c r="I23">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J23">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3081146666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.9243440000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.01074265932303386</v>
+      </c>
+      <c r="P23">
+        <v>0.01395118867963002</v>
+      </c>
+      <c r="Q23">
+        <v>1.926337209605334</v>
+      </c>
+      <c r="R23">
+        <v>11.558023257632</v>
+      </c>
+      <c r="S23">
+        <v>0.008138765502869046</v>
+      </c>
+      <c r="T23">
+        <v>0.009698484766272724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="H19">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="I19">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="J19">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>17.5837035368732</v>
-      </c>
-      <c r="N19">
-        <v>17.5837035368732</v>
-      </c>
-      <c r="O19">
-        <v>0.6772773119485335</v>
-      </c>
-      <c r="P19">
-        <v>0.6772773119485335</v>
-      </c>
-      <c r="Q19">
-        <v>108.1669859045173</v>
-      </c>
-      <c r="R19">
-        <v>108.1669859045173</v>
-      </c>
-      <c r="S19">
-        <v>0.5507654824775113</v>
-      </c>
-      <c r="T19">
-        <v>0.5507654824775113</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.252014</v>
+      </c>
+      <c r="H24">
+        <v>12.504028</v>
+      </c>
+      <c r="I24">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J24">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.954666333333333</v>
+      </c>
+      <c r="N24">
+        <v>11.863999</v>
+      </c>
+      <c r="O24">
+        <v>0.1378825409867045</v>
+      </c>
+      <c r="P24">
+        <v>0.1790641671757937</v>
+      </c>
+      <c r="Q24">
+        <v>24.72462928132867</v>
+      </c>
+      <c r="R24">
+        <v>148.347775687972</v>
+      </c>
+      <c r="S24">
+        <v>0.1044614405321751</v>
+      </c>
+      <c r="T24">
+        <v>0.1244805111176952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.252014</v>
+      </c>
+      <c r="H25">
+        <v>12.504028</v>
+      </c>
+      <c r="I25">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J25">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>18.436643</v>
+      </c>
+      <c r="N25">
+        <v>36.873286</v>
+      </c>
+      <c r="O25">
+        <v>0.642808007006256</v>
+      </c>
+      <c r="P25">
+        <v>0.5565310860718087</v>
+      </c>
+      <c r="Q25">
+        <v>115.266150149002</v>
+      </c>
+      <c r="R25">
+        <v>461.064600596008</v>
+      </c>
+      <c r="S25">
+        <v>0.486998933418009</v>
+      </c>
+      <c r="T25">
+        <v>0.3868851883643074</v>
       </c>
     </row>
   </sheetData>
